--- a/4. Efecto Hall/CompleteData/Datos_Temp_puro.xlsx
+++ b/4. Efecto Hall/CompleteData/Datos_Temp_puro.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\CompleteData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F4709-7787-42F1-8473-6521CA0C528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+  <si>
+    <t>I=0</t>
+  </si>
+  <si>
+    <t>T [°C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V_H </t>
+  </si>
+  <si>
+    <t>V_L</t>
+  </si>
+  <si>
+    <t>I=1.4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +356,951 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="E3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>1.861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>1.2</v>
+      </c>
+      <c r="C4">
+        <v>21.5</v>
+      </c>
+      <c r="E4">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>1.7390000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>1.2</v>
+      </c>
+      <c r="C5">
+        <v>21.2</v>
+      </c>
+      <c r="E5">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>1.6639999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>47</v>
+      </c>
+      <c r="B6">
+        <v>1.2</v>
+      </c>
+      <c r="C6">
+        <v>1.98</v>
+      </c>
+      <c r="E6">
+        <v>47</v>
+      </c>
+      <c r="G6">
+        <v>1.5169999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>49</v>
+      </c>
+      <c r="B7">
+        <v>1.2</v>
+      </c>
+      <c r="C7">
+        <v>1.8</v>
+      </c>
+      <c r="E7">
+        <v>49</v>
+      </c>
+      <c r="G7">
+        <v>1.4450000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="C8">
+        <v>1.68</v>
+      </c>
+      <c r="E8">
+        <v>51</v>
+      </c>
+      <c r="G8">
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>53</v>
+      </c>
+      <c r="B9">
+        <v>1.2</v>
+      </c>
+      <c r="C9">
+        <v>1.52</v>
+      </c>
+      <c r="E9">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>1.123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>55</v>
+      </c>
+      <c r="B10">
+        <v>1.2</v>
+      </c>
+      <c r="C10">
+        <v>1.42</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>1.2</v>
+      </c>
+      <c r="C11">
+        <v>1.29</v>
+      </c>
+      <c r="E11">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>59</v>
+      </c>
+      <c r="B12">
+        <v>1.2</v>
+      </c>
+      <c r="C12">
+        <v>1.21</v>
+      </c>
+      <c r="E12">
+        <v>59</v>
+      </c>
+      <c r="G12">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>61</v>
+      </c>
+      <c r="B13">
+        <v>1.2</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13">
+        <v>61</v>
+      </c>
+      <c r="G13">
+        <v>0.81200000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>63</v>
+      </c>
+      <c r="B14">
+        <v>1.2</v>
+      </c>
+      <c r="C14">
+        <v>1.01</v>
+      </c>
+      <c r="E14">
+        <v>63</v>
+      </c>
+      <c r="G14">
+        <v>0.74399999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>1.2</v>
+      </c>
+      <c r="C15">
+        <v>0.93</v>
+      </c>
+      <c r="E15">
+        <v>65</v>
+      </c>
+      <c r="G15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>67</v>
+      </c>
+      <c r="B16">
+        <v>1.2</v>
+      </c>
+      <c r="C16">
+        <v>0.87</v>
+      </c>
+      <c r="E16">
+        <v>67</v>
+      </c>
+      <c r="G16">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>69</v>
+      </c>
+      <c r="B17">
+        <v>1.2</v>
+      </c>
+      <c r="C17">
+        <v>0.8</v>
+      </c>
+      <c r="E17">
+        <v>69</v>
+      </c>
+      <c r="G17">
+        <v>0.59699999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>71</v>
+      </c>
+      <c r="B18">
+        <v>1.2</v>
+      </c>
+      <c r="C18">
+        <v>0.74</v>
+      </c>
+      <c r="E18">
+        <v>71</v>
+      </c>
+      <c r="G18">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>73</v>
+      </c>
+      <c r="B19">
+        <v>1.2</v>
+      </c>
+      <c r="C19">
+        <v>0.68</v>
+      </c>
+      <c r="E19">
+        <v>73</v>
+      </c>
+      <c r="G19">
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>75</v>
+      </c>
+      <c r="B20">
+        <v>1.2</v>
+      </c>
+      <c r="C20">
+        <v>0.61</v>
+      </c>
+      <c r="E20">
+        <v>75</v>
+      </c>
+      <c r="G20">
+        <v>0.47699999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>77</v>
+      </c>
+      <c r="B21">
+        <v>1.2</v>
+      </c>
+      <c r="C21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E21">
+        <v>77</v>
+      </c>
+      <c r="G21">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>79</v>
+      </c>
+      <c r="B22">
+        <v>1.2</v>
+      </c>
+      <c r="C22">
+        <v>0.52</v>
+      </c>
+      <c r="E22">
+        <v>79</v>
+      </c>
+      <c r="G22">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>81</v>
+      </c>
+      <c r="B23">
+        <v>1.2</v>
+      </c>
+      <c r="C23">
+        <v>0.47</v>
+      </c>
+      <c r="E23">
+        <v>81</v>
+      </c>
+      <c r="G23">
+        <v>0.38300000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>83</v>
+      </c>
+      <c r="B24">
+        <v>1.2</v>
+      </c>
+      <c r="C24">
+        <v>0.45</v>
+      </c>
+      <c r="E24">
+        <v>83</v>
+      </c>
+      <c r="G24">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>1.2</v>
+      </c>
+      <c r="C25">
+        <v>0.43</v>
+      </c>
+      <c r="E25">
+        <v>85</v>
+      </c>
+      <c r="G25">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>87</v>
+      </c>
+      <c r="B26">
+        <v>1.2</v>
+      </c>
+      <c r="C26">
+        <v>0.41</v>
+      </c>
+      <c r="E26">
+        <v>87</v>
+      </c>
+      <c r="G26">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>1.2</v>
+      </c>
+      <c r="C27">
+        <v>0.37</v>
+      </c>
+      <c r="E27">
+        <v>89</v>
+      </c>
+      <c r="G27">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>1.2</v>
+      </c>
+      <c r="C28">
+        <v>0.35</v>
+      </c>
+      <c r="E28">
+        <v>91</v>
+      </c>
+      <c r="G28">
+        <v>0.26900000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>93</v>
+      </c>
+      <c r="B29">
+        <v>1.2</v>
+      </c>
+      <c r="C29">
+        <v>0.32</v>
+      </c>
+      <c r="E29">
+        <v>93</v>
+      </c>
+      <c r="G29">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>95</v>
+      </c>
+      <c r="B30">
+        <v>1.2</v>
+      </c>
+      <c r="C30">
+        <v>0.3</v>
+      </c>
+      <c r="E30">
+        <v>95</v>
+      </c>
+      <c r="G30">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>97</v>
+      </c>
+      <c r="B31">
+        <v>1.2</v>
+      </c>
+      <c r="C31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E31">
+        <v>97</v>
+      </c>
+      <c r="G31">
+        <v>0.216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>99</v>
+      </c>
+      <c r="B32">
+        <v>1.2</v>
+      </c>
+      <c r="C32">
+        <v>0.26</v>
+      </c>
+      <c r="E32">
+        <v>99</v>
+      </c>
+      <c r="G32">
+        <v>0.20499999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>101</v>
+      </c>
+      <c r="B33">
+        <v>1.2</v>
+      </c>
+      <c r="C33">
+        <v>0.25</v>
+      </c>
+      <c r="E33">
+        <v>101</v>
+      </c>
+      <c r="G33">
+        <v>0.191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>103</v>
+      </c>
+      <c r="B34">
+        <v>1.2</v>
+      </c>
+      <c r="C34">
+        <v>0.23</v>
+      </c>
+      <c r="E34">
+        <v>103</v>
+      </c>
+      <c r="F34">
+        <v>1.3</v>
+      </c>
+      <c r="G34">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>105</v>
+      </c>
+      <c r="B35">
+        <v>1.2</v>
+      </c>
+      <c r="C35">
+        <v>0.22</v>
+      </c>
+      <c r="E35">
+        <v>105</v>
+      </c>
+      <c r="F35">
+        <v>1.3</v>
+      </c>
+      <c r="G35">
+        <v>0.16700000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>107</v>
+      </c>
+      <c r="B36">
+        <v>1.2</v>
+      </c>
+      <c r="C36">
+        <v>0.2</v>
+      </c>
+      <c r="E36">
+        <v>107</v>
+      </c>
+      <c r="F36">
+        <v>1.3</v>
+      </c>
+      <c r="G36">
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>109</v>
+      </c>
+      <c r="B37">
+        <v>1.2</v>
+      </c>
+      <c r="C37">
+        <v>0.19</v>
+      </c>
+      <c r="E37">
+        <v>109</v>
+      </c>
+      <c r="F37">
+        <v>1.3</v>
+      </c>
+      <c r="G37">
+        <v>0.14799999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>111</v>
+      </c>
+      <c r="B38">
+        <v>1.2</v>
+      </c>
+      <c r="C38">
+        <v>0.18</v>
+      </c>
+      <c r="E38">
+        <v>111</v>
+      </c>
+      <c r="F38">
+        <v>1.3</v>
+      </c>
+      <c r="G38">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>113</v>
+      </c>
+      <c r="B39">
+        <v>1.2</v>
+      </c>
+      <c r="C39">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E39">
+        <v>113</v>
+      </c>
+      <c r="F39">
+        <v>1.3</v>
+      </c>
+      <c r="G39">
+        <v>0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>115</v>
+      </c>
+      <c r="B40">
+        <v>1.2</v>
+      </c>
+      <c r="C40">
+        <v>0.16</v>
+      </c>
+      <c r="E40">
+        <v>115</v>
+      </c>
+      <c r="F40">
+        <v>1.3</v>
+      </c>
+      <c r="G40">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>117</v>
+      </c>
+      <c r="B41">
+        <v>1.2</v>
+      </c>
+      <c r="C41">
+        <v>0.15</v>
+      </c>
+      <c r="E41">
+        <v>117</v>
+      </c>
+      <c r="F41">
+        <v>1.3</v>
+      </c>
+      <c r="G41">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>119</v>
+      </c>
+      <c r="B42">
+        <v>1.2</v>
+      </c>
+      <c r="C42">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E42">
+        <v>119</v>
+      </c>
+      <c r="F42">
+        <v>1.3</v>
+      </c>
+      <c r="G42">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>121</v>
+      </c>
+      <c r="B43">
+        <v>1.2</v>
+      </c>
+      <c r="C43">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E43">
+        <v>121</v>
+      </c>
+      <c r="F43">
+        <v>1.3</v>
+      </c>
+      <c r="G43">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>123</v>
+      </c>
+      <c r="B44">
+        <v>1.2</v>
+      </c>
+      <c r="C44">
+        <v>0.123</v>
+      </c>
+      <c r="E44">
+        <v>123</v>
+      </c>
+      <c r="F44">
+        <v>1.3</v>
+      </c>
+      <c r="G44">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>125</v>
+      </c>
+      <c r="B45">
+        <v>1.2</v>
+      </c>
+      <c r="C45">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E45">
+        <v>125</v>
+      </c>
+      <c r="F45">
+        <v>1.3</v>
+      </c>
+      <c r="G45">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>127</v>
+      </c>
+      <c r="B46">
+        <v>1.2</v>
+      </c>
+      <c r="C46">
+        <v>0.109</v>
+      </c>
+      <c r="E46">
+        <v>127</v>
+      </c>
+      <c r="F46">
+        <v>1.3</v>
+      </c>
+      <c r="G46">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>129</v>
+      </c>
+      <c r="B47">
+        <v>1.2</v>
+      </c>
+      <c r="C47">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E47">
+        <v>129</v>
+      </c>
+      <c r="F47">
+        <v>1.3</v>
+      </c>
+      <c r="G47">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>131</v>
+      </c>
+      <c r="B48">
+        <v>1.2</v>
+      </c>
+      <c r="C48">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E48">
+        <v>131</v>
+      </c>
+      <c r="F48">
+        <v>1.3</v>
+      </c>
+      <c r="G48">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>133</v>
+      </c>
+      <c r="B49">
+        <v>1.2</v>
+      </c>
+      <c r="C49">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E49">
+        <v>133</v>
+      </c>
+      <c r="F49">
+        <v>1.3</v>
+      </c>
+      <c r="G49">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>135</v>
+      </c>
+      <c r="B50">
+        <v>1.2</v>
+      </c>
+      <c r="C50">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E50">
+        <v>135</v>
+      </c>
+      <c r="F50">
+        <v>1.3</v>
+      </c>
+      <c r="G50">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>137</v>
+      </c>
+      <c r="B51">
+        <v>1.2</v>
+      </c>
+      <c r="C51">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E51">
+        <v>137</v>
+      </c>
+      <c r="F51">
+        <v>1.3</v>
+      </c>
+      <c r="G51">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>139</v>
+      </c>
+      <c r="B52">
+        <v>1.2</v>
+      </c>
+      <c r="C52">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E52">
+        <v>139</v>
+      </c>
+      <c r="F52">
+        <v>1.3</v>
+      </c>
+      <c r="G52">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/4. Efecto Hall/CompleteData/Datos_Temp_puro.xlsx
+++ b/4. Efecto Hall/CompleteData/Datos_Temp_puro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\InterHall\Intermedio\4. Efecto Hall\CompleteData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Intermedio\Hall\Intermedio\4. Efecto Hall\CompleteData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901F4709-7787-42F1-8473-6521CA0C528B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7461243-0385-4A34-9C84-1BC324D810E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>I=0</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>I=1.4</t>
+  </si>
+  <si>
+    <t>VH err</t>
+  </si>
+  <si>
+    <t>VL err</t>
+  </si>
+  <si>
+    <t>V_H [mV]</t>
+  </si>
+  <si>
+    <t>V_L [V]</t>
   </si>
 </sst>
 </file>
@@ -357,43 +369,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>41</v>
       </c>
@@ -403,14 +427,29 @@
       <c r="C3">
         <v>2.4900000000000002</v>
       </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
       <c r="E3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
         <v>41</v>
       </c>
-      <c r="G3">
+      <c r="H3">
+        <v>1.3</v>
+      </c>
+      <c r="I3">
         <v>1.861</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>0.1</v>
+      </c>
+      <c r="K3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43</v>
       </c>
@@ -420,14 +459,29 @@
       <c r="C4">
         <v>21.5</v>
       </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
       <c r="E4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
         <v>43</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <v>1.3</v>
+      </c>
+      <c r="I4">
         <v>1.7390000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0.1</v>
+      </c>
+      <c r="K4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>45</v>
       </c>
@@ -437,14 +491,29 @@
       <c r="C5">
         <v>21.2</v>
       </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
       <c r="E5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
         <v>45</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <v>1.3</v>
+      </c>
+      <c r="I5">
         <v>1.6639999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>0.1</v>
+      </c>
+      <c r="K5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>47</v>
       </c>
@@ -454,14 +523,29 @@
       <c r="C6">
         <v>1.98</v>
       </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
       <c r="E6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
         <v>47</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>1.3</v>
+      </c>
+      <c r="I6">
         <v>1.5169999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>49</v>
       </c>
@@ -471,14 +555,29 @@
       <c r="C7">
         <v>1.8</v>
       </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
       <c r="E7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
         <v>49</v>
       </c>
-      <c r="G7">
+      <c r="H7">
+        <v>1.3</v>
+      </c>
+      <c r="I7">
         <v>1.4450000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>51</v>
       </c>
@@ -488,14 +587,29 @@
       <c r="C8">
         <v>1.68</v>
       </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
       <c r="E8">
+        <v>0.01</v>
+      </c>
+      <c r="G8">
         <v>51</v>
       </c>
-      <c r="G8">
+      <c r="H8">
+        <v>1.3</v>
+      </c>
+      <c r="I8">
         <v>1.323</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>53</v>
       </c>
@@ -505,14 +619,29 @@
       <c r="C9">
         <v>1.52</v>
       </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
       <c r="E9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
         <v>53</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>1.3</v>
+      </c>
+      <c r="I9">
         <v>1.123</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>55</v>
       </c>
@@ -522,14 +651,29 @@
       <c r="C10">
         <v>1.42</v>
       </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
       <c r="E10">
+        <v>0.01</v>
+      </c>
+      <c r="G10">
         <v>55</v>
       </c>
-      <c r="G10">
+      <c r="H10">
+        <v>1.3</v>
+      </c>
+      <c r="I10">
         <v>1.0309999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>57</v>
       </c>
@@ -539,14 +683,29 @@
       <c r="C11">
         <v>1.29</v>
       </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
       <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
         <v>57</v>
       </c>
-      <c r="G11">
+      <c r="H11">
+        <v>1.3</v>
+      </c>
+      <c r="I11">
         <v>0.95399999999999996</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>59</v>
       </c>
@@ -556,14 +715,29 @@
       <c r="C12">
         <v>1.21</v>
       </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
       <c r="E12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
         <v>59</v>
       </c>
-      <c r="G12">
+      <c r="H12">
+        <v>1.3</v>
+      </c>
+      <c r="I12">
         <v>0.88700000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>61</v>
       </c>
@@ -573,14 +747,29 @@
       <c r="C13">
         <v>1.1000000000000001</v>
       </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
       <c r="E13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
         <v>61</v>
       </c>
-      <c r="G13">
+      <c r="H13">
+        <v>1.3</v>
+      </c>
+      <c r="I13">
         <v>0.81200000000000006</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>63</v>
       </c>
@@ -590,14 +779,29 @@
       <c r="C14">
         <v>1.01</v>
       </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
       <c r="E14">
+        <v>0.01</v>
+      </c>
+      <c r="G14">
         <v>63</v>
       </c>
-      <c r="G14">
+      <c r="H14">
+        <v>1.3</v>
+      </c>
+      <c r="I14">
         <v>0.74399999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>65</v>
       </c>
@@ -607,14 +811,29 @@
       <c r="C15">
         <v>0.93</v>
       </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
       <c r="E15">
+        <v>0.01</v>
+      </c>
+      <c r="G15">
         <v>65</v>
       </c>
-      <c r="G15">
+      <c r="H15">
+        <v>1.3</v>
+      </c>
+      <c r="I15">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>67</v>
       </c>
@@ -624,14 +843,29 @@
       <c r="C16">
         <v>0.87</v>
       </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
       <c r="E16">
+        <v>0.01</v>
+      </c>
+      <c r="G16">
         <v>67</v>
       </c>
-      <c r="G16">
+      <c r="H16">
+        <v>1.3</v>
+      </c>
+      <c r="I16">
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="K16">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>69</v>
       </c>
@@ -641,14 +875,29 @@
       <c r="C17">
         <v>0.8</v>
       </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
       <c r="E17">
+        <v>0.01</v>
+      </c>
+      <c r="G17">
         <v>69</v>
       </c>
-      <c r="G17">
+      <c r="H17">
+        <v>1.3</v>
+      </c>
+      <c r="I17">
         <v>0.59699999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>71</v>
       </c>
@@ -658,14 +907,29 @@
       <c r="C18">
         <v>0.74</v>
       </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
       <c r="E18">
+        <v>0.01</v>
+      </c>
+      <c r="G18">
         <v>71</v>
       </c>
-      <c r="G18">
+      <c r="H18">
+        <v>1.3</v>
+      </c>
+      <c r="I18">
         <v>0.54400000000000004</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="K18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>73</v>
       </c>
@@ -675,14 +939,29 @@
       <c r="C19">
         <v>0.68</v>
       </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
       <c r="E19">
+        <v>0.01</v>
+      </c>
+      <c r="G19">
         <v>73</v>
       </c>
-      <c r="G19">
+      <c r="H19">
+        <v>1.3</v>
+      </c>
+      <c r="I19">
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="K19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>75</v>
       </c>
@@ -692,14 +971,29 @@
       <c r="C20">
         <v>0.61</v>
       </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
       <c r="E20">
+        <v>0.01</v>
+      </c>
+      <c r="G20">
         <v>75</v>
       </c>
-      <c r="G20">
+      <c r="H20">
+        <v>1.3</v>
+      </c>
+      <c r="I20">
         <v>0.47699999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>77</v>
       </c>
@@ -709,14 +1003,29 @@
       <c r="C21">
         <v>0.56999999999999995</v>
       </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
       <c r="E21">
+        <v>0.01</v>
+      </c>
+      <c r="G21">
         <v>77</v>
       </c>
-      <c r="G21">
+      <c r="H21">
+        <v>1.3</v>
+      </c>
+      <c r="I21">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>0.1</v>
+      </c>
+      <c r="K21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>79</v>
       </c>
@@ -726,14 +1035,29 @@
       <c r="C22">
         <v>0.52</v>
       </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
       <c r="E22">
+        <v>0.01</v>
+      </c>
+      <c r="G22">
         <v>79</v>
       </c>
-      <c r="G22">
+      <c r="H22">
+        <v>1.3</v>
+      </c>
+      <c r="I22">
         <v>0.41099999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>0.1</v>
+      </c>
+      <c r="K22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>81</v>
       </c>
@@ -743,14 +1067,29 @@
       <c r="C23">
         <v>0.47</v>
       </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
       <c r="E23">
+        <v>0.01</v>
+      </c>
+      <c r="G23">
         <v>81</v>
       </c>
-      <c r="G23">
+      <c r="H23">
+        <v>1.3</v>
+      </c>
+      <c r="I23">
         <v>0.38300000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>0.1</v>
+      </c>
+      <c r="K23">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>83</v>
       </c>
@@ -760,14 +1099,29 @@
       <c r="C24">
         <v>0.45</v>
       </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
       <c r="E24">
+        <v>0.01</v>
+      </c>
+      <c r="G24">
         <v>83</v>
       </c>
-      <c r="G24">
+      <c r="H24">
+        <v>1.3</v>
+      </c>
+      <c r="I24">
         <v>0.35499999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>0.1</v>
+      </c>
+      <c r="K24">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>85</v>
       </c>
@@ -777,14 +1131,29 @@
       <c r="C25">
         <v>0.43</v>
       </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
       <c r="E25">
+        <v>0.01</v>
+      </c>
+      <c r="G25">
         <v>85</v>
       </c>
-      <c r="G25">
+      <c r="H25">
+        <v>1.3</v>
+      </c>
+      <c r="I25">
         <v>0.33200000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>0.1</v>
+      </c>
+      <c r="K25">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>87</v>
       </c>
@@ -794,14 +1163,29 @@
       <c r="C26">
         <v>0.41</v>
       </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
       <c r="E26">
+        <v>0.01</v>
+      </c>
+      <c r="G26">
         <v>87</v>
       </c>
-      <c r="G26">
+      <c r="H26">
+        <v>1.3</v>
+      </c>
+      <c r="I26">
         <v>0.31</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>0.1</v>
+      </c>
+      <c r="K26">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>89</v>
       </c>
@@ -811,14 +1195,29 @@
       <c r="C27">
         <v>0.37</v>
       </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
       <c r="E27">
+        <v>0.01</v>
+      </c>
+      <c r="G27">
         <v>89</v>
       </c>
-      <c r="G27">
+      <c r="H27">
+        <v>1.3</v>
+      </c>
+      <c r="I27">
         <v>0.28699999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>0.1</v>
+      </c>
+      <c r="K27">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>91</v>
       </c>
@@ -828,14 +1227,29 @@
       <c r="C28">
         <v>0.35</v>
       </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
       <c r="E28">
+        <v>0.01</v>
+      </c>
+      <c r="G28">
         <v>91</v>
       </c>
-      <c r="G28">
+      <c r="H28">
+        <v>1.3</v>
+      </c>
+      <c r="I28">
         <v>0.26900000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>0.1</v>
+      </c>
+      <c r="K28">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>93</v>
       </c>
@@ -845,14 +1259,29 @@
       <c r="C29">
         <v>0.32</v>
       </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
       <c r="E29">
+        <v>0.01</v>
+      </c>
+      <c r="G29">
         <v>93</v>
       </c>
-      <c r="G29">
+      <c r="H29">
+        <v>1.3</v>
+      </c>
+      <c r="I29">
         <v>0.247</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>0.1</v>
+      </c>
+      <c r="K29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>95</v>
       </c>
@@ -862,14 +1291,29 @@
       <c r="C30">
         <v>0.3</v>
       </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
       <c r="E30">
+        <v>0.01</v>
+      </c>
+      <c r="G30">
         <v>95</v>
       </c>
-      <c r="G30">
+      <c r="H30">
+        <v>1.3</v>
+      </c>
+      <c r="I30">
         <v>0.23499999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J30">
+        <v>0.1</v>
+      </c>
+      <c r="K30">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>97</v>
       </c>
@@ -879,14 +1323,29 @@
       <c r="C31">
         <v>0.28000000000000003</v>
       </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
       <c r="E31">
+        <v>0.01</v>
+      </c>
+      <c r="G31">
         <v>97</v>
       </c>
-      <c r="G31">
+      <c r="H31">
+        <v>1.3</v>
+      </c>
+      <c r="I31">
         <v>0.216</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J31">
+        <v>0.1</v>
+      </c>
+      <c r="K31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>99</v>
       </c>
@@ -896,14 +1355,29 @@
       <c r="C32">
         <v>0.26</v>
       </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
       <c r="E32">
+        <v>0.01</v>
+      </c>
+      <c r="G32">
         <v>99</v>
       </c>
-      <c r="G32">
+      <c r="H32">
+        <v>1.3</v>
+      </c>
+      <c r="I32">
         <v>0.20499999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J32">
+        <v>0.1</v>
+      </c>
+      <c r="K32">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>101</v>
       </c>
@@ -913,14 +1387,29 @@
       <c r="C33">
         <v>0.25</v>
       </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
       <c r="E33">
+        <v>0.01</v>
+      </c>
+      <c r="G33">
         <v>101</v>
       </c>
-      <c r="G33">
+      <c r="H33">
+        <v>1.3</v>
+      </c>
+      <c r="I33">
         <v>0.191</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <v>0.1</v>
+      </c>
+      <c r="K33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>103</v>
       </c>
@@ -930,17 +1419,29 @@
       <c r="C34">
         <v>0.23</v>
       </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
       <c r="E34">
+        <v>0.01</v>
+      </c>
+      <c r="G34">
         <v>103</v>
       </c>
-      <c r="F34">
-        <v>1.3</v>
-      </c>
-      <c r="G34">
+      <c r="H34">
+        <v>1.3</v>
+      </c>
+      <c r="I34">
         <v>0.17899999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>0.1</v>
+      </c>
+      <c r="K34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>105</v>
       </c>
@@ -950,17 +1451,29 @@
       <c r="C35">
         <v>0.22</v>
       </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
       <c r="E35">
+        <v>0.01</v>
+      </c>
+      <c r="G35">
         <v>105</v>
       </c>
-      <c r="F35">
-        <v>1.3</v>
-      </c>
-      <c r="G35">
+      <c r="H35">
+        <v>1.3</v>
+      </c>
+      <c r="I35">
         <v>0.16700000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J35">
+        <v>0.1</v>
+      </c>
+      <c r="K35">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>107</v>
       </c>
@@ -970,17 +1483,29 @@
       <c r="C36">
         <v>0.2</v>
       </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
       <c r="E36">
+        <v>0.01</v>
+      </c>
+      <c r="G36">
         <v>107</v>
       </c>
-      <c r="F36">
-        <v>1.3</v>
-      </c>
-      <c r="G36">
+      <c r="H36">
+        <v>1.3</v>
+      </c>
+      <c r="I36">
         <v>0.157</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>0.1</v>
+      </c>
+      <c r="K36">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>109</v>
       </c>
@@ -990,17 +1515,29 @@
       <c r="C37">
         <v>0.19</v>
       </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
       <c r="E37">
+        <v>0.01</v>
+      </c>
+      <c r="G37">
         <v>109</v>
       </c>
-      <c r="F37">
-        <v>1.3</v>
-      </c>
-      <c r="G37">
+      <c r="H37">
+        <v>1.3</v>
+      </c>
+      <c r="I37">
         <v>0.14799999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>0.1</v>
+      </c>
+      <c r="K37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>111</v>
       </c>
@@ -1010,17 +1547,29 @@
       <c r="C38">
         <v>0.18</v>
       </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
       <c r="E38">
+        <v>0.01</v>
+      </c>
+      <c r="G38">
         <v>111</v>
       </c>
-      <c r="F38">
-        <v>1.3</v>
-      </c>
-      <c r="G38">
+      <c r="H38">
+        <v>1.3</v>
+      </c>
+      <c r="I38">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>0.1</v>
+      </c>
+      <c r="K38">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>113</v>
       </c>
@@ -1030,17 +1579,29 @@
       <c r="C39">
         <v>0.16800000000000001</v>
       </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
       <c r="E39">
+        <v>0.01</v>
+      </c>
+      <c r="G39">
         <v>113</v>
       </c>
-      <c r="F39">
-        <v>1.3</v>
-      </c>
-      <c r="G39">
+      <c r="H39">
+        <v>1.3</v>
+      </c>
+      <c r="I39">
         <v>0.13100000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>0.1</v>
+      </c>
+      <c r="K39">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>115</v>
       </c>
@@ -1050,17 +1611,29 @@
       <c r="C40">
         <v>0.16</v>
       </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
       <c r="E40">
+        <v>0.01</v>
+      </c>
+      <c r="G40">
         <v>115</v>
       </c>
-      <c r="F40">
-        <v>1.3</v>
-      </c>
-      <c r="G40">
+      <c r="H40">
+        <v>1.3</v>
+      </c>
+      <c r="I40">
         <v>0.123</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>0.1</v>
+      </c>
+      <c r="K40">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>117</v>
       </c>
@@ -1070,17 +1643,29 @@
       <c r="C41">
         <v>0.15</v>
       </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
       <c r="E41">
+        <v>0.01</v>
+      </c>
+      <c r="G41">
         <v>117</v>
       </c>
-      <c r="F41">
-        <v>1.3</v>
-      </c>
-      <c r="G41">
+      <c r="H41">
+        <v>1.3</v>
+      </c>
+      <c r="I41">
         <v>0.113</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>0.1</v>
+      </c>
+      <c r="K41">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>119</v>
       </c>
@@ -1090,17 +1675,29 @@
       <c r="C42">
         <v>0.14000000000000001</v>
       </c>
+      <c r="D42">
+        <v>0.1</v>
+      </c>
       <c r="E42">
+        <v>0.01</v>
+      </c>
+      <c r="G42">
         <v>119</v>
       </c>
-      <c r="F42">
-        <v>1.3</v>
-      </c>
-      <c r="G42">
+      <c r="H42">
+        <v>1.3</v>
+      </c>
+      <c r="I42">
         <v>0.108</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>0.1</v>
+      </c>
+      <c r="K42">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>121</v>
       </c>
@@ -1110,17 +1707,29 @@
       <c r="C43">
         <v>0.13200000000000001</v>
       </c>
+      <c r="D43">
+        <v>0.1</v>
+      </c>
       <c r="E43">
+        <v>0.01</v>
+      </c>
+      <c r="G43">
         <v>121</v>
       </c>
-      <c r="F43">
-        <v>1.3</v>
-      </c>
-      <c r="G43">
+      <c r="H43">
+        <v>1.3</v>
+      </c>
+      <c r="I43">
         <v>0.10199999999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>0.1</v>
+      </c>
+      <c r="K43">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>123</v>
       </c>
@@ -1130,17 +1739,29 @@
       <c r="C44">
         <v>0.123</v>
       </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
       <c r="E44">
+        <v>0.01</v>
+      </c>
+      <c r="G44">
         <v>123</v>
       </c>
-      <c r="F44">
-        <v>1.3</v>
-      </c>
-      <c r="G44">
+      <c r="H44">
+        <v>1.3</v>
+      </c>
+      <c r="I44">
         <v>9.7000000000000003E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>0.1</v>
+      </c>
+      <c r="K44">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>125</v>
       </c>
@@ -1150,17 +1771,29 @@
       <c r="C45">
         <v>0.11700000000000001</v>
       </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
       <c r="E45">
+        <v>0.01</v>
+      </c>
+      <c r="G45">
         <v>125</v>
       </c>
-      <c r="F45">
-        <v>1.3</v>
-      </c>
-      <c r="G45">
+      <c r="H45">
+        <v>1.3</v>
+      </c>
+      <c r="I45">
         <v>9.1999999999999998E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>0.1</v>
+      </c>
+      <c r="K45">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>127</v>
       </c>
@@ -1170,17 +1803,29 @@
       <c r="C46">
         <v>0.109</v>
       </c>
+      <c r="D46">
+        <v>0.1</v>
+      </c>
       <c r="E46">
+        <v>0.01</v>
+      </c>
+      <c r="G46">
         <v>127</v>
       </c>
-      <c r="F46">
-        <v>1.3</v>
-      </c>
-      <c r="G46">
+      <c r="H46">
+        <v>1.3</v>
+      </c>
+      <c r="I46">
         <v>8.7999999999999995E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>0.1</v>
+      </c>
+      <c r="K46">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>129</v>
       </c>
@@ -1190,17 +1835,29 @@
       <c r="C47">
         <v>0.10199999999999999</v>
       </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
       <c r="E47">
+        <v>0.01</v>
+      </c>
+      <c r="G47">
         <v>129</v>
       </c>
-      <c r="F47">
-        <v>1.3</v>
-      </c>
-      <c r="G47">
+      <c r="H47">
+        <v>1.3</v>
+      </c>
+      <c r="I47">
         <v>8.2000000000000003E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>0.1</v>
+      </c>
+      <c r="K47">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>131</v>
       </c>
@@ -1210,17 +1867,29 @@
       <c r="C48">
         <v>9.8000000000000004E-2</v>
       </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
       <c r="E48">
+        <v>0.01</v>
+      </c>
+      <c r="G48">
         <v>131</v>
       </c>
-      <c r="F48">
-        <v>1.3</v>
-      </c>
-      <c r="G48">
+      <c r="H48">
+        <v>1.3</v>
+      </c>
+      <c r="I48">
         <v>7.9000000000000001E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>0.1</v>
+      </c>
+      <c r="K48">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>133</v>
       </c>
@@ -1230,17 +1899,29 @@
       <c r="C49">
         <v>9.0999999999999998E-2</v>
       </c>
+      <c r="D49">
+        <v>0.1</v>
+      </c>
       <c r="E49">
+        <v>0.01</v>
+      </c>
+      <c r="G49">
         <v>133</v>
       </c>
-      <c r="F49">
-        <v>1.3</v>
-      </c>
-      <c r="G49">
+      <c r="H49">
+        <v>1.3</v>
+      </c>
+      <c r="I49">
         <v>7.5999999999999998E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>0.1</v>
+      </c>
+      <c r="K49">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>135</v>
       </c>
@@ -1250,17 +1931,29 @@
       <c r="C50">
         <v>8.6999999999999994E-2</v>
       </c>
+      <c r="D50">
+        <v>0.1</v>
+      </c>
       <c r="E50">
+        <v>0.01</v>
+      </c>
+      <c r="G50">
         <v>135</v>
       </c>
-      <c r="F50">
-        <v>1.3</v>
-      </c>
-      <c r="G50">
+      <c r="H50">
+        <v>1.3</v>
+      </c>
+      <c r="I50">
         <v>7.3999999999999996E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>0.1</v>
+      </c>
+      <c r="K50">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>137</v>
       </c>
@@ -1270,17 +1963,29 @@
       <c r="C51">
         <v>8.1000000000000003E-2</v>
       </c>
+      <c r="D51">
+        <v>0.1</v>
+      </c>
       <c r="E51">
+        <v>0.01</v>
+      </c>
+      <c r="G51">
         <v>137</v>
       </c>
-      <c r="F51">
-        <v>1.3</v>
-      </c>
-      <c r="G51">
+      <c r="H51">
+        <v>1.3</v>
+      </c>
+      <c r="I51">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J51">
+        <v>0.1</v>
+      </c>
+      <c r="K51">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>139</v>
       </c>
@@ -1290,14 +1995,26 @@
       <c r="C52">
         <v>7.6999999999999999E-2</v>
       </c>
+      <c r="D52">
+        <v>0.1</v>
+      </c>
       <c r="E52">
+        <v>0.01</v>
+      </c>
+      <c r="G52">
         <v>139</v>
       </c>
-      <c r="F52">
-        <v>1.3</v>
-      </c>
-      <c r="G52">
+      <c r="H52">
+        <v>1.3</v>
+      </c>
+      <c r="I52">
         <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="J52">
+        <v>0.1</v>
+      </c>
+      <c r="K52">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
